--- a/Running projects/Imtiaz Korangi (Labour RAtes)/Demand/010-10-12-24_ISM Korangi_MS Pipe and Fittings with insulation.XLSX
+++ b/Running projects/Imtiaz Korangi (Labour RAtes)/Demand/010-10-12-24_ISM Korangi_MS Pipe and Fittings with insulation.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Imtiaz Korangi (Labour RAtes)\Demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3B9E7-5B5D-4380-B985-48744FF8EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F92425C-D4C4-419A-99D3-065CC2E6BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="MS Pipe and Fittings" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'MS Pipe and Fittings'!$A$1:$F$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MS Pipe and Fittings'!$A$1:$F$96</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'MS Pipe and Fittings'!$2:$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
   <si>
     <t>Description</t>
   </si>
@@ -61,33 +62,12 @@
     <t>TEE</t>
   </si>
   <si>
-    <t>2" X 1-1/2"</t>
-  </si>
-  <si>
-    <t>2" X 1-1/4"</t>
-  </si>
-  <si>
-    <t>1-1/2" X 1-1/4"</t>
-  </si>
-  <si>
     <t>1-1/2" x 1"</t>
   </si>
   <si>
-    <t>4" Dia</t>
-  </si>
-  <si>
     <t>2-1/2"</t>
   </si>
   <si>
-    <t>Anchor bold</t>
-  </si>
-  <si>
-    <t>14mm</t>
-  </si>
-  <si>
-    <t>Date: 02/12/2024</t>
-  </si>
-  <si>
     <t>S #</t>
   </si>
   <si>
@@ -100,9 +80,6 @@
     <t>FIRE Loop Clamp</t>
   </si>
   <si>
-    <t xml:space="preserve">Cutting disc </t>
-  </si>
-  <si>
     <t>5"</t>
   </si>
   <si>
@@ -112,12 +89,6 @@
     <t>010_ Demand for Pipe and Fittings</t>
   </si>
   <si>
-    <t>Fittings</t>
-  </si>
-  <si>
-    <t>Elbow 24 Deg</t>
-  </si>
-  <si>
     <t>Chilled water wooden block (as per insulation thickness / Size)</t>
   </si>
   <si>
@@ -139,24 +110,6 @@
     <t>Wooden Block</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>iii</t>
-  </si>
-  <si>
-    <t>iv</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>vi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drain rubberized clip </t>
   </si>
   <si>
@@ -172,9 +125,6 @@
     <t>12" Dia pipe Size</t>
   </si>
   <si>
-    <t>Noa</t>
-  </si>
-  <si>
     <t>10" Dia pipe Size</t>
   </si>
   <si>
@@ -185,13 +135,193 @@
   </si>
   <si>
     <t>1"</t>
+  </si>
+  <si>
+    <t>Polyurethane insulation PU Insulation</t>
+  </si>
+  <si>
+    <t>Thermopore Insualtion</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=300  OD=345  12 Hole</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=245  OD=290  08 Hole</t>
+  </si>
+  <si>
+    <t>MS Flange with dead flange</t>
+  </si>
+  <si>
+    <t>10"</t>
+  </si>
+  <si>
+    <t>08"</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=180  OD=220  08 Hole</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=145  OD=180  04 Hole</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=210  OD=250  08 Hole</t>
+  </si>
+  <si>
+    <t>MS Flange PCD=160  OD=200  08 Hole</t>
+  </si>
+  <si>
+    <t>Rubber Gasket</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>SFT</t>
+  </si>
+  <si>
+    <t>Drain Pipe with insulation (for FCU &amp; AHU)</t>
+  </si>
+  <si>
+    <t>Drain Pipe</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Elbow</t>
+  </si>
+  <si>
+    <t>1-1/2" x 1-1/4"</t>
+  </si>
+  <si>
+    <t>2" x 1-1/2"</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Threaded Rods</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>Pop Rivet</t>
+  </si>
+  <si>
+    <t>540 Num</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Pack</t>
+  </si>
+  <si>
+    <t>5/32</t>
+  </si>
+  <si>
+    <t>Drill Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Elbow </t>
+  </si>
+  <si>
+    <t>Chiller coupling joint with Rubber</t>
+  </si>
+  <si>
+    <t>5" x 6"</t>
+  </si>
+  <si>
+    <t>6" x 8"</t>
+  </si>
+  <si>
+    <t>MS Reduser</t>
+  </si>
+  <si>
+    <t>PVC Bush</t>
+  </si>
+  <si>
+    <t>3" x 2"</t>
+  </si>
+  <si>
+    <t>M.S Pipe</t>
+  </si>
+  <si>
+    <t>Rock wool insulation</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Drain Pipe with insulation</t>
+  </si>
+  <si>
+    <t>Bending Wire</t>
+  </si>
+  <si>
+    <t>1-1/2</t>
+  </si>
+  <si>
+    <t>M.S Fittings</t>
+  </si>
+  <si>
+    <t>PVC Fittings</t>
+  </si>
+  <si>
+    <t>10" x 8"</t>
+  </si>
+  <si>
+    <t>10" x 6"</t>
+  </si>
+  <si>
+    <t>2-1/2" x 1"</t>
+  </si>
+  <si>
+    <t>4" x 2-1/2"</t>
+  </si>
+  <si>
+    <t>2" x 1"</t>
+  </si>
+  <si>
+    <t>Reducer (Center)</t>
+  </si>
+  <si>
+    <t>Reducer (One Side)</t>
+  </si>
+  <si>
+    <t>4" x 8"</t>
+  </si>
+  <si>
+    <t>5" x 8"</t>
+  </si>
+  <si>
+    <t>2-1/2" x 6"</t>
+  </si>
+  <si>
+    <t>3" x 6"</t>
+  </si>
+  <si>
+    <t>Elbow 45 Deg</t>
+  </si>
+  <si>
+    <t>Date: 11/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +367,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -258,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,43 +406,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -332,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,23 +460,29 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -395,55 +500,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1434354</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>379356</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19717</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B4B191-23B6-21A9-6DA6-06112ADADC31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7171766" y="1961029"/>
-          <a:ext cx="4267796" cy="4782217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -733,33 +789,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F46"/>
+  <dimension ref="B1:F184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="15.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1"/>
       <c r="E2" s="11" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F2" s="11"/>
     </row>
@@ -771,7 +827,7 @@
     </row>
     <row r="4" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -780,7 +836,7 @@
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -795,343 +851,349 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+    <row r="6" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6">
+        <v>250</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>160</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6">
-        <v>250</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>120</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6">
+        <v>200</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
+        <v>450</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>700</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6">
+        <v>300</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="E16" s="6">
+        <v>300</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="6">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+    </row>
+    <row r="17" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>300</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>500</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>800</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="6">
-        <v>40</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6">
-        <v>25</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="6">
-        <v>24</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>38</v>
+      <c r="B24" s="7">
+        <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" s="6">
+        <v>300</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6"/>
       <c r="E25" s="6">
+        <v>340</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>60</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>4</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>4</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E27" s="6">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="6">
-        <v>100</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="6">
         <v>10</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6">
-        <v>40</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>9</v>
@@ -1139,85 +1201,135 @@
     </row>
     <row r="30" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="6">
+        <v>6</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="6">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="6">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
         <v>7</v>
       </c>
-      <c r="E30" s="6">
-        <v>40</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="6">
+        <v>8</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E36" s="6">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
+        <v>9</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="6">
         <v>4</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="6">
-        <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>9</v>
@@ -1225,16 +1337,16 @@
     </row>
     <row r="38" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E38" s="6">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>9</v>
@@ -1242,16 +1354,16 @@
     </row>
     <row r="39" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E39" s="6">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>9</v>
@@ -1259,16 +1371,16 @@
     </row>
     <row r="40" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E40" s="6">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>9</v>
@@ -1276,16 +1388,16 @@
     </row>
     <row r="41" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E41" s="6">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>9</v>
@@ -1293,16 +1405,16 @@
     </row>
     <row r="42" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E42" s="6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>9</v>
@@ -1310,16 +1422,16 @@
     </row>
     <row r="43" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E43" s="6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>9</v>
@@ -1327,16 +1439,16 @@
     </row>
     <row r="44" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E44" s="6">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>9</v>
@@ -1344,16 +1456,16 @@
     </row>
     <row r="45" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>9</v>
@@ -1361,30 +1473,1501 @@
     </row>
     <row r="46" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
+        <v>18</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>19</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6">
+        <v>12</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>20</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="6">
+        <v>18</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>21</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6">
+        <v>12</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>22</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="6">
+        <v>4</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>23</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="6">
+        <v>4</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>24</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="6">
+        <v>4</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>25</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <v>26</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>27</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="6">
+        <v>20</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="6">
+        <v>10</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>29</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="6">
+        <v>20</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>30</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="6">
+        <v>40</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <v>31</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="E59" s="6">
+        <v>45</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
+        <v>32</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="6">
+        <v>25</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
+        <v>33</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="6">
+        <v>24</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <v>34</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="6">
+        <v>90</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>35</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="7">
+        <v>36</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>37</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>38</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>39</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <v>4</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>40</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="7">
+        <v>41</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="6">
+        <v>100</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>42</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="6">
+        <v>40</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>43</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="6">
+        <v>40</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="7">
+        <v>44</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="6">
+        <v>56</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="7">
+        <v>45</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="6">
+        <v>66</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="7">
+        <v>46</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="E74" s="6">
+        <v>3</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="7">
+        <v>47</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="6">
+        <v>30</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="7">
+        <v>48</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6">
+        <v>3</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="7">
+        <v>49</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="6">
+        <v>9</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="7">
         <v>50</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="6">
+        <v>10</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>51</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="6">
+        <v>6</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
+        <v>52</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="6">
+        <v>70</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="7">
+        <v>53</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="6">
+        <v>500</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="7">
+        <v>54</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="6">
+        <v>5</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="7">
+        <v>55</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="6">
+        <v>4</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="7">
+        <v>1</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="6">
+        <v>12</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7">
+        <v>2</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="6">
+        <v>36</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="7">
+        <v>3</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="6">
+        <v>250</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="7">
+        <v>4</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6">
+        <v>24</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="7">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="6">
+        <v>6</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="7">
+        <v>6</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="6">
+        <v>6</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="7">
+        <v>7</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="6">
+        <v>4</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="7">
+        <v>8</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="6">
+        <v>6</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7">
+        <v>9</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="6">
+        <v>18</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="7">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6">
+        <v>10</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="7">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="6">
+        <v>12</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="7">
+        <v>12</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="6">
+        <v>12</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="7">
+        <v>13</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="6">
+        <v>12</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7">
+        <v>14</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="6">
+        <v>12</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="7">
+        <v>15</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6">
+        <v>250</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="B84:F84"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>